--- a/data/output/FV2504_FV2410/UTILMD/55080.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55080.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="338">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="338">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1180,6 +1180,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U154" totalsRowShown="0">
+  <autoFilter ref="A1:U154"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,7 +1499,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8106,5 +8139,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55080.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55080.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="488">
   <si>
     <t>#</t>
   </si>
@@ -8346,9 +8346,7 @@
         <v>248</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>48</v>
       </c>
@@ -8510,9 +8508,7 @@
         <v>248</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>49</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55080.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55080.xlsx
@@ -1614,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1637,6 +1637,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1645,6 +1648,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2087,7 +2093,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2455,7 +2461,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2601,7 +2607,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2807,7 +2813,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3117,7 +3123,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3299,24 +3305,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M26" s="5"/>
@@ -3334,33 +3340,33 @@
       <c r="A27" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M27" s="5"/>
@@ -3378,33 +3384,33 @@
       <c r="A28" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M28" s="5"/>
@@ -3422,31 +3428,31 @@
       <c r="A29" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M29" s="5"/>
@@ -3464,31 +3470,31 @@
       <c r="A30" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M30" s="5"/>
@@ -3506,31 +3512,31 @@
       <c r="A31" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M31" s="5"/>
@@ -3548,31 +3554,31 @@
       <c r="A32" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M32" s="5"/>
@@ -3600,29 +3606,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3638,33 +3644,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3682,35 +3688,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3726,33 +3732,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3768,33 +3774,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3810,33 +3816,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3852,33 +3858,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -3901,7 +3907,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4215,7 +4221,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4391,25 +4397,25 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="6" t="s">
         <v>254</v>
       </c>
@@ -4419,22 +4425,22 @@
       <c r="L50" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5" t="s">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="6" t="s">
         <v>330</v>
       </c>
@@ -4615,25 +4621,25 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
       <c r="J54" s="6" t="s">
         <v>254</v>
       </c>
@@ -4643,22 +4649,22 @@
       <c r="L54" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5" t="s">
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
       <c r="U54" s="6" t="s">
         <v>330</v>
       </c>
@@ -4847,26 +4853,26 @@
       <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M58" s="5"/>
@@ -4884,33 +4890,33 @@
       <c r="A59" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M59" s="5"/>
@@ -4928,31 +4934,31 @@
       <c r="A60" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M60" s="5"/>
@@ -4980,29 +4986,29 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -5018,35 +5024,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -5062,35 +5068,35 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5106,54 +5112,54 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="6" t="s">
         <v>257</v>
       </c>
@@ -5163,22 +5169,22 @@
       <c r="L65" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="O65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
       <c r="U65" s="6" t="s">
         <v>256</v>
       </c>
@@ -5378,55 +5384,55 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>258</v>
       </c>
       <c r="K70" s="6" t="s">
@@ -5435,23 +5441,23 @@
       <c r="L70" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P70" s="5"/>
+      <c r="P70" s="2"/>
       <c r="Q70" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>258</v>
       </c>
       <c r="V70" s="6" t="s">
@@ -5643,22 +5649,22 @@
       <c r="B74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M74" s="5"/>
@@ -5676,27 +5682,27 @@
       <c r="A75" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M75" s="5"/>
@@ -5714,33 +5720,33 @@
       <c r="A76" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M76" s="5"/>
@@ -5758,33 +5764,33 @@
       <c r="A77" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M77" s="5"/>
@@ -5805,22 +5811,22 @@
       <c r="B78" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M78" s="5"/>
@@ -5838,27 +5844,27 @@
       <c r="A79" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="E79" s="9"/>
+      <c r="F79" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M79" s="5"/>
@@ -5876,33 +5882,33 @@
       <c r="A80" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M80" s="5"/>
@@ -5920,33 +5926,33 @@
       <c r="A81" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L81" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M81" s="5"/>
@@ -5974,35 +5980,35 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11" t="s">
+      <c r="S82" s="13"/>
+      <c r="T82" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U82" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V82" s="11"/>
+      <c r="U82" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V82" s="13"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -6018,33 +6024,33 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11" t="s">
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="U83" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V83" s="11"/>
+      <c r="U83" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6060,33 +6066,33 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="U84" s="11" t="s">
+      <c r="U84" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="V84" s="11" t="s">
+      <c r="V84" s="13" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6104,29 +6110,29 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11" t="s">
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11" t="s">
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="V85" s="11" t="s">
+      <c r="V85" s="13" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6144,35 +6150,35 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M86" s="11" t="s">
+      <c r="M86" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N86" s="11" t="s">
+      <c r="N86" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="P86" s="11" t="s">
+      <c r="P86" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="Q86" s="11" t="s">
+      <c r="Q86" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R86" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11" t="s">
+      <c r="S86" s="13"/>
+      <c r="T86" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="U86" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V86" s="11"/>
+      <c r="U86" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -6188,33 +6194,33 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M87" s="11" t="s">
+      <c r="M87" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N87" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11" t="s">
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U87" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V87" s="11"/>
+      <c r="U87" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V87" s="13"/>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="2" t="s">
@@ -6237,7 +6243,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6439,7 +6445,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6627,22 +6633,22 @@
       <c r="B96" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M96" s="5"/>
@@ -6660,27 +6666,27 @@
       <c r="A97" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M97" s="5"/>
@@ -6698,33 +6704,33 @@
       <c r="A98" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M98" s="5"/>
@@ -6745,26 +6751,26 @@
       <c r="B99" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="L99" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M99" s="5"/>
@@ -6782,33 +6788,33 @@
       <c r="A100" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M100" s="5"/>
@@ -6826,33 +6832,33 @@
       <c r="A101" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="L101" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M101" s="5"/>
@@ -6873,20 +6879,20 @@
       <c r="B102" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M102" s="5"/>
@@ -6904,27 +6910,27 @@
       <c r="A103" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8" t="s">
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M103" s="5"/>
@@ -6942,33 +6948,33 @@
       <c r="A104" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="J104" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M104" s="5"/>
@@ -6986,33 +6992,33 @@
       <c r="A105" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="J105" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M105" s="5"/>
@@ -7033,22 +7039,22 @@
       <c r="B106" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8" t="s">
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M106" s="5"/>
@@ -7066,27 +7072,27 @@
       <c r="A107" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8" t="s">
+      <c r="E107" s="9"/>
+      <c r="F107" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9" t="s">
+      <c r="K107" s="9"/>
+      <c r="L107" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M107" s="5"/>
@@ -7104,33 +7110,33 @@
       <c r="A108" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="J108" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M108" s="5"/>
@@ -7151,24 +7157,24 @@
       <c r="B109" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8" t="s">
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M109" s="5"/>
@@ -7186,33 +7192,33 @@
       <c r="A110" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="J110" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M110" s="5"/>
@@ -7230,31 +7236,31 @@
       <c r="A111" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M111" s="5"/>
@@ -7272,31 +7278,31 @@
       <c r="A112" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8" t="s">
+      <c r="F112" s="9"/>
+      <c r="G112" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8" t="s">
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="9" t="s">
+      <c r="J112" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="L112" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M112" s="5"/>
@@ -7314,31 +7320,31 @@
       <c r="A113" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8" t="s">
+      <c r="F113" s="9"/>
+      <c r="G113" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8" t="s">
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J113" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9" t="s">
+      <c r="J113" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M113" s="5"/>
@@ -7356,31 +7362,31 @@
       <c r="A114" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="J114" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M114" s="5"/>
@@ -7401,22 +7407,22 @@
       <c r="B115" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8" t="s">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="K115" s="8" t="s">
+      <c r="K115" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="L115" s="9" t="s">
+      <c r="L115" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M115" s="5"/>
@@ -7434,27 +7440,27 @@
       <c r="A116" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8" t="s">
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K116" s="8"/>
-      <c r="L116" s="9" t="s">
+      <c r="K116" s="9"/>
+      <c r="L116" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M116" s="5"/>
@@ -7472,33 +7478,33 @@
       <c r="A117" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G117" s="8" t="s">
+      <c r="G117" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8" t="s">
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="9" t="s">
+      <c r="J117" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M117" s="5"/>
@@ -7519,26 +7525,26 @@
       <c r="B118" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K118" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="L118" s="9" t="s">
+      <c r="L118" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M118" s="5"/>
@@ -7556,33 +7562,33 @@
       <c r="A119" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8" t="s">
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K119" s="8"/>
-      <c r="L119" s="9" t="s">
+      <c r="J119" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K119" s="9"/>
+      <c r="L119" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M119" s="5"/>
@@ -7600,33 +7606,33 @@
       <c r="A120" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8" t="s">
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J120" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K120" s="8" t="s">
+      <c r="K120" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L120" s="9" t="s">
+      <c r="L120" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M120" s="5"/>
@@ -7647,22 +7653,22 @@
       <c r="B121" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8" t="s">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K121" s="8" t="s">
+      <c r="K121" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="L121" s="9" t="s">
+      <c r="L121" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M121" s="5"/>
@@ -7680,27 +7686,27 @@
       <c r="A122" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8" t="s">
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K122" s="8"/>
-      <c r="L122" s="9" t="s">
+      <c r="K122" s="9"/>
+      <c r="L122" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M122" s="5"/>
@@ -7718,33 +7724,33 @@
       <c r="A123" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8" t="s">
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K123" s="8"/>
-      <c r="L123" s="9" t="s">
+      <c r="J123" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K123" s="9"/>
+      <c r="L123" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M123" s="5"/>
@@ -7762,33 +7768,33 @@
       <c r="A124" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8" t="s">
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J124" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="L124" s="9" t="s">
+      <c r="L124" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M124" s="5"/>
@@ -7806,33 +7812,33 @@
       <c r="A125" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8" t="s">
+      <c r="H125" s="9"/>
+      <c r="I125" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J125" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K125" s="8"/>
-      <c r="L125" s="9" t="s">
+      <c r="J125" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K125" s="9"/>
+      <c r="L125" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M125" s="5"/>
@@ -7853,22 +7859,22 @@
       <c r="B126" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="L126" s="9" t="s">
+      <c r="L126" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M126" s="5"/>
@@ -7886,27 +7892,27 @@
       <c r="A127" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
+      <c r="E127" s="9"/>
+      <c r="F127" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8" t="s">
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K127" s="8"/>
-      <c r="L127" s="9" t="s">
+      <c r="K127" s="9"/>
+      <c r="L127" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M127" s="5"/>
@@ -7924,33 +7930,33 @@
       <c r="A128" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8" t="s">
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J128" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K128" s="8"/>
-      <c r="L128" s="9" t="s">
+      <c r="J128" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K128" s="9"/>
+      <c r="L128" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M128" s="5"/>
@@ -7968,33 +7974,33 @@
       <c r="A129" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G129" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8" t="s">
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K129" s="8"/>
-      <c r="L129" s="9" t="s">
+      <c r="J129" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K129" s="9"/>
+      <c r="L129" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M129" s="5"/>
@@ -8012,31 +8018,31 @@
       <c r="A130" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8" t="s">
+      <c r="F130" s="9"/>
+      <c r="G130" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8" t="s">
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J130" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K130" s="8"/>
-      <c r="L130" s="9" t="s">
+      <c r="J130" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K130" s="9"/>
+      <c r="L130" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M130" s="5"/>
@@ -8051,22 +8057,22 @@
       <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2" t="s">
         <v>265</v>
       </c>
       <c r="K131" s="6" t="s">
@@ -8075,19 +8081,19 @@
       <c r="L131" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M131" s="5" t="s">
+      <c r="M131" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5" t="s">
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2" t="s">
         <v>265</v>
       </c>
       <c r="V131" s="6" t="s">
@@ -8373,52 +8379,52 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K137" s="5"/>
+      <c r="K137" s="2"/>
       <c r="L137" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O137" s="5" t="s">
+      <c r="O137" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P137" s="5"/>
+      <c r="P137" s="2"/>
       <c r="Q137" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -8601,22 +8607,22 @@
       <c r="B141" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8" t="s">
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L141" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M141" s="5"/>
@@ -8634,27 +8640,27 @@
       <c r="A142" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
+      <c r="E142" s="9"/>
+      <c r="F142" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8" t="s">
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M142" s="5"/>
@@ -8672,33 +8678,33 @@
       <c r="A143" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="G143" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8" t="s">
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J143" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9" t="s">
+      <c r="J143" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K143" s="9"/>
+      <c r="L143" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M143" s="5"/>
@@ -8716,31 +8722,31 @@
       <c r="A144" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J144" s="8" t="s">
+      <c r="J144" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M144" s="5"/>
@@ -8758,33 +8764,33 @@
       <c r="A145" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="L145" s="9" t="s">
+      <c r="L145" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M145" s="5"/>
@@ -8802,31 +8808,31 @@
       <c r="A146" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9" t="s">
+      <c r="J146" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K146" s="9"/>
+      <c r="L146" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M146" s="5"/>
@@ -8844,31 +8850,31 @@
       <c r="A147" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8" t="s">
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J147" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K147" s="8"/>
-      <c r="L147" s="9" t="s">
+      <c r="J147" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K147" s="9"/>
+      <c r="L147" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M147" s="5"/>
@@ -8886,31 +8892,31 @@
       <c r="A148" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8" t="s">
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J148" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K148" s="8"/>
-      <c r="L148" s="9" t="s">
+      <c r="J148" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K148" s="9"/>
+      <c r="L148" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M148" s="5"/>
@@ -8931,22 +8937,22 @@
       <c r="B149" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8" t="s">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8" t="s">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8" t="s">
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K149" s="8"/>
-      <c r="L149" s="9" t="s">
+      <c r="K149" s="9"/>
+      <c r="L149" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M149" s="5"/>
@@ -8964,29 +8970,29 @@
       <c r="A150" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8" t="s">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8" t="s">
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J150" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K150" s="8"/>
-      <c r="L150" s="9" t="s">
+      <c r="J150" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K150" s="9"/>
+      <c r="L150" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M150" s="5"/>
@@ -9004,29 +9010,29 @@
       <c r="A151" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8" t="s">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8" t="s">
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J151" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K151" s="8"/>
-      <c r="L151" s="9" t="s">
+      <c r="J151" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K151" s="9"/>
+      <c r="L151" s="10" t="s">
         <v>290</v>
       </c>
       <c r="M151" s="5"/>
@@ -9054,27 +9060,27 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
-      <c r="L152" s="10" t="s">
+      <c r="L152" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M152" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="N152" s="11"/>
-      <c r="O152" s="11" t="s">
+      <c r="N152" s="13"/>
+      <c r="O152" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P152" s="11"/>
-      <c r="Q152" s="11" t="s">
+      <c r="P152" s="13"/>
+      <c r="Q152" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
-      <c r="U152" s="11" t="s">
+      <c r="R152" s="13"/>
+      <c r="S152" s="13"/>
+      <c r="T152" s="13"/>
+      <c r="U152" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="V152" s="11"/>
+      <c r="V152" s="13"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9090,31 +9096,31 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="10" t="s">
+      <c r="L153" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M153" s="11" t="s">
+      <c r="M153" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="N153" s="11"/>
-      <c r="O153" s="11" t="s">
+      <c r="N153" s="13"/>
+      <c r="O153" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P153" s="11" t="s">
+      <c r="P153" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q153" s="11" t="s">
+      <c r="Q153" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11" t="s">
+      <c r="R153" s="13"/>
+      <c r="S153" s="13"/>
+      <c r="T153" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="U153" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V153" s="11"/>
+      <c r="U153" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V153" s="13"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -9130,31 +9136,31 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
-      <c r="L154" s="10" t="s">
+      <c r="L154" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="M154" s="11" t="s">
+      <c r="M154" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="N154" s="11"/>
-      <c r="O154" s="11" t="s">
+      <c r="N154" s="13"/>
+      <c r="O154" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P154" s="11" t="s">
+      <c r="P154" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q154" s="11" t="s">
+      <c r="Q154" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="R154" s="11"/>
-      <c r="S154" s="11"/>
-      <c r="T154" s="11" t="s">
+      <c r="R154" s="13"/>
+      <c r="S154" s="13"/>
+      <c r="T154" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="U154" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="V154" s="11"/>
+      <c r="U154" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V154" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
